--- a/docs/quizsheets/theory_basicsir.xlsx
+++ b/docs/quizsheets/theory_basicsir.xlsx
@@ -419,12 +419,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What's the name of the R package we'll be using a lot in this course?</t>
+          <t>What's the abbreviated name of the R package we'll be using a lot in this course?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Answer is not case sensitive</t>
+          <t>Enter abbreviation of package name. Answer is not case sensitive</t>
         </is>
       </c>
     </row>

--- a/docs/quizsheets/theory_basicsir.xlsx
+++ b/docs/quizsheets/theory_basicsir.xlsx
@@ -419,12 +419,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What's the abbreviated name of the R package we'll be using a lot in this course?</t>
+          <t>What's the name of the R package we'll be using a lot in this course?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Enter abbreviation of package name. Answer is not case sensitive</t>
+          <t>Answer is not case sensitive</t>
         </is>
       </c>
     </row>
